--- a/biology/Zoologie/Acrotholus/Acrotholus.xlsx
+++ b/biology/Zoologie/Acrotholus/Acrotholus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acrotholus audeti
 Acrotholus est un  genre éteint de petits dinosaures ornithischiens bipèdes et herbivores, de la famille des pachycephalosauridés. Il a vécu pendant le Santonien, au Crétacé supérieur, il y a un peu plus de 80 millions d'années, dans ce qui est aujourd’hui l'Alberta (Canada). 
-Une seule espèce est rattachée au genre : Acrotholus audeti, décrite en 2013 par D. C. Evans et ses collègues[1].
+Une seule espèce est rattachée au genre : Acrotholus audeti, décrite en 2013 par D. C. Evans et ses collègues.
 </t>
         </is>
       </c>
@@ -513,11 +525,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le dôme crânien épais emblématique que l'on retrouve sur Acrotholus en fait l'un des plus anciens membre incontestable de la famille des pachycephalosauridés. Il possède ici une forme ovale, inhabituelle dans cette famille de dinosaures. L'épaisseur de son dôme fronto-pariétal atteint 5,5 cm.
-Ce dôme est généralement associé à des combats intra-espèces[2].
-La découverte de ce spécimen, dans la formation de Milk River, a permis de mieux connaître l'évolution des premiers pachycéphalosaures[1].
+Ce dôme est généralement associé à des combats intra-espèces.
+La découverte de ce spécimen, dans la formation de Milk River, a permis de mieux connaître l'évolution des premiers pachycéphalosaures.
 </t>
         </is>
       </c>
@@ -546,10 +560,12 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Acrotholus appartient à la famille des Pachycephalosauridae.
-Le cladogramme suivant, modifié des inventeurs du genre en 2013[1], montre sa position au sein de cette famille, où il est placé en groupe frère de Prenocephale prenes :
+Le cladogramme suivant, modifié des inventeurs du genre en 2013, montre sa position au sein de cette famille, où il est placé en groupe frère de Prenocephale prenes :
 </t>
         </is>
       </c>
